--- a/biology/Botanique/Clematis_patens_'Evipo038'/Clematis_patens_'Evipo038'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo038'/Clematis_patens_'Evipo038'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo038%27</t>
+          <t>Clematis_patens_'Evipo038'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Evipo038',  est un cultivar de clématite obtenu en 1994 par Hiroshi Hayakawa au Japon. Elle porte le nom commercial de clématite patens Crystal Fountain 'Evipo038'.
-En 2002, cette clématite a été nommée 'Fairy Blue', mais ce nom fut rejeté en 2004 par Union pour la protection des obtentions végétales. À la suite de ce rejet, 'Evipo038' est proposé en 2004 puis accepté le 23 novembre 2005[1]
+En 2002, cette clématite a été nommée 'Fairy Blue', mais ce nom fut rejeté en 2004 par Union pour la protection des obtentions végétales. À la suite de ce rejet, 'Evipo038' est proposé en 2004 puis accepté le 23 novembre 2005
 Ce cultivar a été présenté au Chelsea Flower Show de 2002 par le célèbre obtenteur de rosiers : Poulsen Roser.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo038%27</t>
+          <t>Clematis_patens_'Evipo038'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,23 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui signifie que ce cultivar donnera une floraison printanière sur la pousse de l'année précédente et une seconde à l'automne sur les pousses de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne, elles mesurent 10 cm[2]. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
-Tiges
-Les tiges de la clématite Crystal Fountain apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
-Fleurs
-La clématite Crystal Fountain dispose d'une fleur de taille moyenne bleu lilas, avec une médiane légèrement blanche.  Elle peut atteindre 18 centimètres, avec un grand nombre de stigmates blancs faisant penser à une fontaine. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au bleu pâle.
-Bouton floral et pédoncule
-Le bouton floral de Crystal Fountain est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 millimètres de couleur verte également.
-Sépales
-Les sépales de la clématite Crystal Fountain mesurent entre 6 et 8 cm de long. Ils sont ondulés et striés le long de la nervure centrale.
-Étamines et stigmates
-Crystal Fountain possède des  étamines de couleur jaune verdâtre et des stigmates de  couleur blanche légèrement bleutée.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo038%27</t>
+          <t>Clematis_patens_'Evipo038'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce cultivar a été obtenue par mutation de la clématite 'H F Young'[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. En moyenne, elles mesurent 10 cm. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
 </t>
         </is>
       </c>
@@ -571,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo038%27</t>
+          <t>Clematis_patens_'Evipo038'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,13 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo038' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro 02-2991 obtenue le 23 novembre 2005[1]. Le nom commercial 'Crystal Fountain' est protégé par une licence trademark.
-La multiplication de cette clématite est protégée jusqu'au 23 novembre 2023.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Crystal Fountain apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
 </t>
         </is>
       </c>
@@ -603,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo038%27</t>
+          <t>Clematis_patens_'Evipo038'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,28 +629,546 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Crystal Fountain dispose d'une fleur de taille moyenne bleu lilas, avec une médiane légèrement blanche.  Elle peut atteindre 18 centimètres, avec un grand nombre de stigmates blancs faisant penser à une fontaine. Les fleurs de ce cultivar apparaissent la plupart du temps sur la partie supérieure de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au bleu pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Crystal Fountain est allongé et ovoïde d'environ 4 à 5 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 11 à 15 millimètres de couleur verte également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales de la clématite Crystal Fountain mesurent entre 6 et 8 cm de long. Ils sont ondulés et striés le long de la nervure centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Fountain possède des  étamines de couleur jaune verdâtre et des stigmates de  couleur blanche légèrement bleutée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar a été obtenue par mutation de la clématite 'H F Young'.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo038' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf sous le numéro 02-2991 obtenue le 23 novembre 2005. Le nom commercial 'Crystal Fountain' est protégé par une licence trademark.
+La multiplication de cette clématite est protégée jusqu'au 23 novembre 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Crystal Fountain s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance importante entre 1 mètre et 2 mètres[2].
-Floraison
-Crystal Fountain fleurit deux fois par an sur la pousse de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2[2].
-Utilisations
-Crystal Fountain est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Taille
-La clématite Crystal Fountain a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite Crystal Fountain est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Crystal Fountain s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance importante entre 1 mètre et 2 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Fountain fleurit deux fois par an sur la pousse de l'année précédente du mois de mai et juin pour la floraison printanière et en septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Fountain est parfait pour les pergolas, treillis, tonnelles et clôtures. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Crystal Fountain a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 30 cm ou un tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Crystal Fountain est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
-Récompense
-Crystal Fountain a obtenu en mai 2003 un mérite de Courson lors des journées des collections du domaine de Courson situé à Courson-Monteloup en France[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo038'</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo038%27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Fountain a obtenu en mai 2003 un mérite de Courson lors des journées des collections du domaine de Courson situé à Courson-Monteloup en France.
 </t>
         </is>
       </c>
